--- a/static/template_xlsx/Template_1.xlsx
+++ b/static/template_xlsx/Template_1.xlsx
@@ -27,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>惠州市鑫泽工艺有限公司-产能记录</t>
+  </si>
+  <si>
+    <t>日期</t>
   </si>
   <si>
     <t>PO</t>
@@ -426,52 +429,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,28 +447,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -633,7 +574,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,34 +586,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,27 +698,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1126,106 +1055,116 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:P2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="6"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="7"/>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5" t="s">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="5"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+    <row r="4" spans="1:18">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:D4"/>
     <mergeCell ref="E3:F4"/>
@@ -1234,7 +1173,8 @@
     <mergeCell ref="K3:L4"/>
     <mergeCell ref="M3:N4"/>
     <mergeCell ref="O3:P4"/>
-    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="A1:R2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
